--- a/staticfiles/sample_excel/SampleQuarterFormat.xlsx
+++ b/staticfiles/sample_excel/SampleQuarterFormat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikiyasmebrate/Desktop/Build/time-series-management-system/static/sample_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09487FA1-F786-5D4C-BBC9-BADB077A3726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E01D84A-2FEA-4002-9AAE-12263DB3B17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18840" xr2:uid="{FE123C67-6C0D-104C-80FD-C7D773C31519}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{FE123C67-6C0D-104C-80FD-C7D773C31519}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -46,14 +45,14 @@
     <t>Importdutiesandtaxes211</t>
   </si>
   <si>
-    <t>month</t>
+    <t>quarter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -435,10 +434,10 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="222" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
@@ -446,7 +445,7 @@
     <col min="4" max="4" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -460,7 +459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="2">
         <v>2018</v>
       </c>
@@ -474,7 +473,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="2">
         <v>2018</v>
       </c>
@@ -488,7 +487,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="2">
         <v>2018</v>
       </c>
@@ -502,7 +501,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="2">
         <v>2018</v>
       </c>
@@ -516,7 +515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
